--- a/09.12.20 Evalutating RGB vs RS Depth at 640x480.xlsx
+++ b/09.12.20 Evalutating RGB vs RS Depth at 640x480.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karla\OneDrive\Documents\GitHub\KUL_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_B39811B4818A5E32C26CF5C06318EDE8E7C79C8D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16B39426-3C0A-44A4-9D49-906EDBDC2B8C}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_B39811B4818A5E32C26CF5C06318EDE8E7C79C8D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{28AD0B96-4DD6-4703-98FC-5BC1E052A808}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId4"/>
-    <pivotCache cacheId="24" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -109,12 +109,18 @@
   <si>
     <t>StdDev of Adjusted RS</t>
   </si>
+  <si>
+    <t>percent error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +132,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +173,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -176,9 +190,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6778,7 +6794,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{267144B5-6943-474B-B336-5BECF1B0AF86}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{267144B5-6943-474B-B336-5BECF1B0AF86}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J17:M18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -6826,7 +6842,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBFAAFB-9DED-441E-8088-36F2F7CA4E75}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6BBFAAFB-9DED-441E-8088-36F2F7CA4E75}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:O9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -6915,7 +6931,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02A805DA-9114-491F-BD0F-BF0530938CA7}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02A805DA-9114-491F-BD0F-BF0530938CA7}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K1:P9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -7005,14 +7021,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F82C66B-C82D-424F-B233-A958F83140F0}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8E566FB-D7BB-4BD9-9BE5-B424CC248536}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K17:N18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
+  <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -7036,9 +7053,9 @@
   </colItems>
   <dataFields count="4">
     <dataField name="Average of Zc" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Depth_RS" fld="4" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="Average of Adjusted RS" fld="4" subtotal="average" baseField="0" baseItem="1"/>
     <dataField name="StdDev of Zc" fld="3" subtotal="stdDev" baseField="0" baseItem="1"/>
-    <dataField name="StdDev of Depth_RS2" fld="4" subtotal="stdDev" baseField="0" baseItem="1"/>
+    <dataField name="StdDev of Adjusted RS" fld="4" subtotal="stdDev" baseField="0" baseItem="1"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16295,16 +16312,16 @@
   <dimension ref="A1:P434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:P9"/>
+      <selection activeCell="J21" sqref="J21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.9296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.9296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.06640625" bestFit="1" customWidth="1"/>
     <col min="17" max="45" width="18.06640625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="14.53125" bestFit="1" customWidth="1"/>
@@ -16369,7 +16386,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F2">
-        <f>G2+4.2/1000</f>
+        <f t="shared" ref="F2:F65" si="0">G2+4.2/1000</f>
         <v>1.1660424880431211</v>
       </c>
       <c r="G2">
@@ -16411,7 +16428,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F3">
-        <f>G3+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G3">
@@ -16453,7 +16470,7 @@
         <v>1.18500005628448</v>
       </c>
       <c r="F4">
-        <f>G4+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.128316606065531</v>
       </c>
       <c r="G4">
@@ -16495,7 +16512,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F5">
-        <f>G5+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G5">
@@ -16537,7 +16554,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F6">
-        <f>G6+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1642305512035369</v>
       </c>
       <c r="G6">
@@ -16579,7 +16596,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F7">
-        <f>G7+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166174107671387</v>
       </c>
       <c r="G7">
@@ -16621,7 +16638,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F8">
-        <f>G8+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G8">
@@ -16663,7 +16680,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F9">
-        <f>G9+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G9">
@@ -16705,7 +16722,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F10">
-        <f>G10+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G10">
@@ -16729,7 +16746,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F11">
-        <f>G11+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G11">
@@ -16753,7 +16770,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F12">
-        <f>G12+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.132014600540413</v>
       </c>
       <c r="G12">
@@ -16777,7 +16794,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F13">
-        <f>G13+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1630654715468329</v>
       </c>
       <c r="G13">
@@ -16801,7 +16818,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F14">
-        <f>G14+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G14">
@@ -16825,7 +16842,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F15">
-        <f>G15+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G15">
@@ -16849,7 +16866,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F16">
-        <f>G16+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G16">
@@ -16873,7 +16890,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F17">
-        <f>G17+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0948814555867989</v>
       </c>
       <c r="G17">
@@ -16883,13 +16900,13 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
@@ -16909,7 +16926,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F18">
-        <f>G18+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G18">
@@ -16919,13 +16936,13 @@
         <v>1.1897922043180993</v>
       </c>
       <c r="L18" s="4">
-        <v>1.1382720410962486</v>
+        <v>1.1424720410962426</v>
       </c>
       <c r="M18" s="4">
         <v>3.9899451043136601E-3</v>
       </c>
       <c r="N18" s="4">
-        <v>3.2300582156075591E-2</v>
+        <v>3.2300582156214092E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -16945,7 +16962,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F19">
-        <f>G19+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.156417670514255</v>
       </c>
       <c r="G19">
@@ -16969,7 +16986,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F20">
-        <f>G20+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G20">
@@ -16993,11 +17010,22 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F21">
-        <f>G21+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0948814555867989</v>
       </c>
       <c r="G21">
         <v>1.090681455586799</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="6">
+        <f>(GETPIVOTDATA("Average of Zc",$K$17)-1.1602)/1.1602</f>
+        <v>2.5506123356403544E-2</v>
+      </c>
+      <c r="L21" s="6">
+        <f>(GETPIVOTDATA("Average of Adjusted RS",$K$17)-1.1602)/1.1602</f>
+        <v>-1.528008869484342E-2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
@@ -17017,7 +17045,7 @@
         <v>1.1990000569494439</v>
       </c>
       <c r="F22">
-        <f>G22+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G22">
@@ -17041,7 +17069,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F23">
-        <f>G23+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166174107671387</v>
       </c>
       <c r="G23">
@@ -17065,7 +17093,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F24">
-        <f>G24+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G24">
@@ -17089,7 +17117,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F25">
-        <f>G25+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G25">
@@ -17113,7 +17141,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F26">
-        <f>G26+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G26">
@@ -17137,7 +17165,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F27">
-        <f>G27+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G27">
@@ -17161,7 +17189,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F28">
-        <f>G28+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G28">
@@ -17185,7 +17213,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F29">
-        <f>G29+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G29">
@@ -17209,7 +17237,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F30">
-        <f>G30+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G30">
@@ -17233,7 +17261,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F31">
-        <f>G31+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.11424751308083</v>
       </c>
       <c r="G31">
@@ -17257,7 +17285,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F32">
-        <f>G32+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G32">
@@ -17281,7 +17309,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F33">
-        <f>G33+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G33">
@@ -17305,7 +17333,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F34">
-        <f>G34+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G34">
@@ -17329,7 +17357,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F35">
-        <f>G35+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G35">
@@ -17353,7 +17381,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F36">
-        <f>G36+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G36">
@@ -17377,7 +17405,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F37">
-        <f>G37+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G37">
@@ -17401,7 +17429,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F38">
-        <f>G38+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G38">
@@ -17425,7 +17453,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F39">
-        <f>G39+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G39">
@@ -17449,7 +17477,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F40">
-        <f>G40+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G40">
@@ -17473,7 +17501,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F41">
-        <f>G41+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G41">
@@ -17497,7 +17525,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F42">
-        <f>G42+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G42">
@@ -17521,7 +17549,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F43">
-        <f>G43+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G43">
@@ -17545,7 +17573,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F44">
-        <f>G44+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G44">
@@ -17569,7 +17597,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F45">
-        <f>G45+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G45">
@@ -17593,7 +17621,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F46">
-        <f>G46+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G46">
@@ -17617,7 +17645,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F47">
-        <f>G47+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G47">
@@ -17641,7 +17669,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F48">
-        <f>G48+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G48">
@@ -17665,7 +17693,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F49">
-        <f>G49+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.060029756333839</v>
       </c>
       <c r="G49">
@@ -17689,7 +17717,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F50">
-        <f>G50+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G50">
@@ -17713,7 +17741,7 @@
         <v>1.1990000569494439</v>
       </c>
       <c r="F51">
-        <f>G51+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1670432702461169</v>
       </c>
       <c r="G51">
@@ -17737,7 +17765,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F52">
-        <f>G52+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G52">
@@ -17761,7 +17789,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F53">
-        <f>G53+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1260835244027709</v>
       </c>
       <c r="G53">
@@ -17785,7 +17813,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F54">
-        <f>G54+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G54">
@@ -17809,7 +17837,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F55">
-        <f>G55+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.129463835974571</v>
       </c>
       <c r="G55">
@@ -17833,7 +17861,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F56">
-        <f>G56+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G56">
@@ -17857,7 +17885,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F57">
-        <f>G57+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1260835244027709</v>
       </c>
       <c r="G57">
@@ -17881,7 +17909,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F58">
-        <f>G58+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.140504874669791</v>
       </c>
       <c r="G58">
@@ -17905,7 +17933,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F59">
-        <f>G59+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G59">
@@ -17929,7 +17957,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F60">
-        <f>G60+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G60">
@@ -17953,7 +17981,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F61">
-        <f>G61+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G61">
@@ -17977,7 +18005,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F62">
-        <f>G62+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G62">
@@ -18001,7 +18029,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F63">
-        <f>G63+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G63">
@@ -18025,7 +18053,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F64">
-        <f>G64+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.120639977677047</v>
       </c>
       <c r="G64">
@@ -18049,7 +18077,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F65">
-        <f>G65+4.2/1000</f>
+        <f t="shared" si="0"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G65">
@@ -18073,7 +18101,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F66">
-        <f>G66+4.2/1000</f>
+        <f t="shared" ref="F66:F129" si="1">G66+4.2/1000</f>
         <v>1.166190759002667</v>
       </c>
       <c r="G66">
@@ -18097,7 +18125,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F67">
-        <f>G67+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G67">
@@ -18121,7 +18149,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F68">
-        <f>G68+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1260835244027709</v>
       </c>
       <c r="G68">
@@ -18145,7 +18173,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F69">
-        <f>G69+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G69">
@@ -18169,7 +18197,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F70">
-        <f>G70+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G70">
@@ -18193,7 +18221,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F71">
-        <f>G71+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G71">
@@ -18217,7 +18245,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F72">
-        <f>G72+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.132014600540413</v>
       </c>
       <c r="G72">
@@ -18241,7 +18269,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F73">
-        <f>G73+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G73">
@@ -18265,7 +18293,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F74">
-        <f>G74+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.0960672401899689</v>
       </c>
       <c r="G74">
@@ -18289,7 +18317,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F75">
-        <f>G75+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G75">
@@ -18313,7 +18341,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F76">
-        <f>G76+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G76">
@@ -18337,7 +18365,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F77">
-        <f>G77+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G77">
@@ -18361,7 +18389,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F78">
-        <f>G78+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G78">
@@ -18385,7 +18413,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F79">
-        <f>G79+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G79">
@@ -18409,7 +18437,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F80">
-        <f>G80+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G80">
@@ -18433,7 +18461,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F81">
-        <f>G81+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G81">
@@ -18457,7 +18485,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F82">
-        <f>G82+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G82">
@@ -18481,7 +18509,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F83">
-        <f>G83+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G83">
@@ -18505,7 +18533,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F84">
-        <f>G84+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G84">
@@ -18529,7 +18557,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F85">
-        <f>G85+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G85">
@@ -18553,7 +18581,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F86">
-        <f>G86+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G86">
@@ -18577,7 +18605,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F87">
-        <f>G87+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G87">
@@ -18601,7 +18629,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F88">
-        <f>G88+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G88">
@@ -18625,7 +18653,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F89">
-        <f>G89+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G89">
@@ -18649,7 +18677,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F90">
-        <f>G90+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G90">
@@ -18673,7 +18701,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F91">
-        <f>G91+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.057643112025584</v>
       </c>
       <c r="G91">
@@ -18697,7 +18725,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F92">
-        <f>G92+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G92">
@@ -18721,7 +18749,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F93">
-        <f>G93+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G93">
@@ -18745,7 +18773,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F94">
-        <f>G94+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G94">
@@ -18769,7 +18797,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F95">
-        <f>G95+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G95">
@@ -18793,7 +18821,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F96">
-        <f>G96+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G96">
@@ -18817,7 +18845,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F97">
-        <f>G97+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G97">
@@ -18841,7 +18869,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F98">
-        <f>G98+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G98">
@@ -18865,7 +18893,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F99">
-        <f>G99+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G99">
@@ -18889,7 +18917,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F100">
-        <f>G100+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G100">
@@ -18913,7 +18941,7 @@
         <v>1.18500005628448</v>
       </c>
       <c r="F101">
-        <f>G101+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.156595523011237</v>
       </c>
       <c r="G101">
@@ -18937,7 +18965,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F102">
-        <f>G102+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1959464837069349</v>
       </c>
       <c r="G102">
@@ -18961,7 +18989,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F103">
-        <f>G103+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G103">
@@ -18985,7 +19013,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F104">
-        <f>G104+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G104">
@@ -19009,7 +19037,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F105">
-        <f>G105+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.033229508451178</v>
       </c>
       <c r="G105">
@@ -19033,7 +19061,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F106">
-        <f>G106+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G106">
@@ -19057,7 +19085,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F107">
-        <f>G107+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G107">
@@ -19081,7 +19109,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F108">
-        <f>G108+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G108">
@@ -19105,7 +19133,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F109">
-        <f>G109+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G109">
@@ -19129,7 +19157,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F110">
-        <f>G110+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G110">
@@ -19153,7 +19181,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F111">
-        <f>G111+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G111">
@@ -19177,7 +19205,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F112">
-        <f>G112+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G112">
@@ -19201,7 +19229,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F113">
-        <f>G113+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G113">
@@ -19225,7 +19253,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F114">
-        <f>G114+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G114">
@@ -19249,7 +19277,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F115">
-        <f>G115+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G115">
@@ -19273,7 +19301,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F116">
-        <f>G116+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G116">
@@ -19297,7 +19325,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F117">
-        <f>G117+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G117">
@@ -19321,7 +19349,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F118">
-        <f>G118+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G118">
@@ -19345,7 +19373,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F119">
-        <f>G119+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G119">
@@ -19369,7 +19397,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F120">
-        <f>G120+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G120">
@@ -19393,7 +19421,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F121">
-        <f>G121+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G121">
@@ -19417,7 +19445,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F122">
-        <f>G122+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G122">
@@ -19441,7 +19469,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F123">
-        <f>G123+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G123">
@@ -19465,7 +19493,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F124">
-        <f>G124+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G124">
@@ -19489,7 +19517,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F125">
-        <f>G125+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G125">
@@ -19513,7 +19541,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F126">
-        <f>G126+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G126">
@@ -19537,7 +19565,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F127">
-        <f>G127+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G127">
@@ -19561,7 +19589,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F128">
-        <f>G128+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G128">
@@ -19585,7 +19613,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F129">
-        <f>G129+4.2/1000</f>
+        <f t="shared" si="1"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G129">
@@ -19609,7 +19637,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F130">
-        <f>G130+4.2/1000</f>
+        <f t="shared" ref="F130:F193" si="2">G130+4.2/1000</f>
         <v>1.0960672401899689</v>
       </c>
       <c r="G130">
@@ -19633,7 +19661,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F131">
-        <f>G131+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G131">
@@ -19657,7 +19685,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F132">
-        <f>G132+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G132">
@@ -19681,7 +19709,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F133">
-        <f>G133+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G133">
@@ -19705,7 +19733,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F134">
-        <f>G134+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G134">
@@ -19729,7 +19757,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F135">
-        <f>G135+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.132014600540413</v>
       </c>
       <c r="G135">
@@ -19753,7 +19781,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F136">
-        <f>G136+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G136">
@@ -19777,7 +19805,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F137">
-        <f>G137+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1001138547318401</v>
       </c>
       <c r="G137">
@@ -19801,7 +19829,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F138">
-        <f>G138+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.132014600540413</v>
       </c>
       <c r="G138">
@@ -19825,7 +19853,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F139">
-        <f>G139+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G139">
@@ -19849,7 +19877,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F140">
-        <f>G140+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G140">
@@ -19873,7 +19901,7 @@
         <v>1.18500005628448</v>
       </c>
       <c r="F141">
-        <f>G141+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.244098642862401</v>
       </c>
       <c r="G141">
@@ -19897,7 +19925,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F142">
-        <f>G142+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G142">
@@ -19921,7 +19949,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F143">
-        <f>G143+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G143">
@@ -19945,7 +19973,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F144">
-        <f>G144+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G144">
@@ -19969,7 +19997,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F145">
-        <f>G145+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G145">
@@ -19993,7 +20021,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F146">
-        <f>G146+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G146">
@@ -20017,7 +20045,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F147">
-        <f>G147+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G147">
@@ -20041,7 +20069,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F148">
-        <f>G148+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G148">
@@ -20065,7 +20093,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F149">
-        <f>G149+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G149">
@@ -20089,7 +20117,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F150">
-        <f>G150+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G150">
@@ -20113,7 +20141,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F151">
-        <f>G151+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G151">
@@ -20137,7 +20165,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F152">
-        <f>G152+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G152">
@@ -20161,7 +20189,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F153">
-        <f>G153+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G153">
@@ -20185,7 +20213,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F154">
-        <f>G154+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G154">
@@ -20209,7 +20237,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F155">
-        <f>G155+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G155">
@@ -20233,7 +20261,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F156">
-        <f>G156+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G156">
@@ -20257,7 +20285,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F157">
-        <f>G157+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G157">
@@ -20281,7 +20309,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F158">
-        <f>G158+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G158">
@@ -20305,7 +20333,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F159">
-        <f>G159+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G159">
@@ -20329,7 +20357,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F160">
-        <f>G160+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G160">
@@ -20353,7 +20381,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F161">
-        <f>G161+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1710363424487029</v>
       </c>
       <c r="G161">
@@ -20377,7 +20405,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F162">
-        <f>G162+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G162">
@@ -20401,7 +20429,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F163">
-        <f>G163+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G163">
@@ -20425,7 +20453,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F164">
-        <f>G164+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G164">
@@ -20449,7 +20477,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F165">
-        <f>G165+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G165">
@@ -20473,7 +20501,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F166">
-        <f>G166+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G166">
@@ -20497,7 +20525,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F167">
-        <f>G167+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.0629070472856801</v>
       </c>
       <c r="G167">
@@ -20521,7 +20549,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F168">
-        <f>G168+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G168">
@@ -20545,7 +20573,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F169">
-        <f>G169+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1660424880431211</v>
       </c>
       <c r="G169">
@@ -20569,7 +20597,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F170">
-        <f>G170+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.166174107671387</v>
       </c>
       <c r="G170">
@@ -20593,7 +20621,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F171">
-        <f>G171+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1660424880431211</v>
       </c>
       <c r="G171">
@@ -20617,7 +20645,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F172">
-        <f>G172+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G172">
@@ -20641,7 +20669,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F173">
-        <f>G173+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G173">
@@ -20665,7 +20693,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F174">
-        <f>G174+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G174">
@@ -20689,7 +20717,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F175">
-        <f>G175+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G175">
@@ -20713,7 +20741,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F176">
-        <f>G176+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G176">
@@ -20737,7 +20765,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F177">
-        <f>G177+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G177">
@@ -20761,7 +20789,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F178">
-        <f>G178+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G178">
@@ -20785,7 +20813,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F179">
-        <f>G179+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G179">
@@ -20809,7 +20837,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F180">
-        <f>G180+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1670432702461169</v>
       </c>
       <c r="G180">
@@ -20833,7 +20861,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F181">
-        <f>G181+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G181">
@@ -20857,7 +20885,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F182">
-        <f>G182+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G182">
@@ -20881,7 +20909,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F183">
-        <f>G183+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.140504874669791</v>
       </c>
       <c r="G183">
@@ -20905,7 +20933,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F184">
-        <f>G184+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G184">
@@ -20929,7 +20957,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F185">
-        <f>G185+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G185">
@@ -20953,7 +20981,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F186">
-        <f>G186+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G186">
@@ -20977,7 +21005,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F187">
-        <f>G187+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G187">
@@ -21001,7 +21029,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F188">
-        <f>G188+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G188">
@@ -21025,7 +21053,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F189">
-        <f>G189+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.11424751308083</v>
       </c>
       <c r="G189">
@@ -21049,7 +21077,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F190">
-        <f>G190+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G190">
@@ -21073,7 +21101,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F191">
-        <f>G191+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.0960672401899689</v>
       </c>
       <c r="G191">
@@ -21097,7 +21125,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F192">
-        <f>G192+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.166174107671387</v>
       </c>
       <c r="G192">
@@ -21121,7 +21149,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F193">
-        <f>G193+4.2/1000</f>
+        <f t="shared" si="2"/>
         <v>1.128734912688417</v>
       </c>
       <c r="G193">
@@ -21145,7 +21173,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F194">
-        <f>G194+4.2/1000</f>
+        <f t="shared" ref="F194:F257" si="3">G194+4.2/1000</f>
         <v>1.1688131458084821</v>
       </c>
       <c r="G194">
@@ -21169,7 +21197,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F195">
-        <f>G195+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G195">
@@ -21193,7 +21221,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F196">
-        <f>G196+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G196">
@@ -21217,7 +21245,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F197">
-        <f>G197+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G197">
@@ -21241,7 +21269,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F198">
-        <f>G198+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G198">
@@ -21265,7 +21293,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F199">
-        <f>G199+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G199">
@@ -21289,7 +21317,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F200">
-        <f>G200+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G200">
@@ -21313,7 +21341,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F201">
-        <f>G201+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G201">
@@ -21337,7 +21365,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F202">
-        <f>G202+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G202">
@@ -21361,7 +21389,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F203">
-        <f>G203+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G203">
@@ -21385,7 +21413,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F204">
-        <f>G204+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G204">
@@ -21409,7 +21437,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F205">
-        <f>G205+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G205">
@@ -21433,7 +21461,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F206">
-        <f>G206+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G206">
@@ -21457,7 +21485,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F207">
-        <f>G207+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G207">
@@ -21481,7 +21509,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F208">
-        <f>G208+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G208">
@@ -21505,7 +21533,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F209">
-        <f>G209+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G209">
@@ -21529,7 +21557,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F210">
-        <f>G210+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G210">
@@ -21553,7 +21581,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F211">
-        <f>G211+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G211">
@@ -21577,7 +21605,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F212">
-        <f>G212+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G212">
@@ -21601,7 +21629,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F213">
-        <f>G213+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G213">
@@ -21625,7 +21653,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F214">
-        <f>G214+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G214">
@@ -21649,7 +21677,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F215">
-        <f>G215+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G215">
@@ -21673,7 +21701,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F216">
-        <f>G216+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G216">
@@ -21697,7 +21725,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F217">
-        <f>G217+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G217">
@@ -21721,7 +21749,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F218">
-        <f>G218+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G218">
@@ -21745,7 +21773,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F219">
-        <f>G219+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G219">
@@ -21769,7 +21797,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F220">
-        <f>G220+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G220">
@@ -21793,7 +21821,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F221">
-        <f>G221+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G221">
@@ -21817,7 +21845,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F222">
-        <f>G222+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G222">
@@ -21841,7 +21869,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F223">
-        <f>G223+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G223">
@@ -21865,7 +21893,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F224">
-        <f>G224+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G224">
@@ -21889,7 +21917,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F225">
-        <f>G225+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G225">
@@ -21913,7 +21941,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F226">
-        <f>G226+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G226">
@@ -21937,7 +21965,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F227">
-        <f>G227+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G227">
@@ -21961,7 +21989,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F228">
-        <f>G228+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G228">
@@ -21985,7 +22013,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F229">
-        <f>G229+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0636163163812489</v>
       </c>
       <c r="G229">
@@ -22009,7 +22037,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F230">
-        <f>G230+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G230">
@@ -22033,7 +22061,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F231">
-        <f>G231+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G231">
@@ -22057,7 +22085,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F232">
-        <f>G232+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G232">
@@ -22081,7 +22109,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F233">
-        <f>G233+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G233">
@@ -22105,7 +22133,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F234">
-        <f>G234+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G234">
@@ -22129,7 +22157,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F235">
-        <f>G235+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G235">
@@ -22153,7 +22181,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F236">
-        <f>G236+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G236">
@@ -22177,7 +22205,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F237">
-        <f>G237+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G237">
@@ -22201,7 +22229,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F238">
-        <f>G238+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G238">
@@ -22225,7 +22253,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F239">
-        <f>G239+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G239">
@@ -22249,7 +22277,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F240">
-        <f>G240+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G240">
@@ -22273,7 +22301,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F241">
-        <f>G241+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G241">
@@ -22297,7 +22325,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F242">
-        <f>G242+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.093584948310298</v>
       </c>
       <c r="G242">
@@ -22321,7 +22349,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F243">
-        <f>G243+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G243">
@@ -22345,7 +22373,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F244">
-        <f>G244+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G244">
@@ -22369,7 +22397,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F245">
-        <f>G245+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G245">
@@ -22393,7 +22421,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F246">
-        <f>G246+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G246">
@@ -22417,7 +22445,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F247">
-        <f>G247+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G247">
@@ -22441,7 +22469,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F248">
-        <f>G248+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0960672401899689</v>
       </c>
       <c r="G248">
@@ -22465,7 +22493,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F249">
-        <f>G249+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G249">
@@ -22489,7 +22517,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F250">
-        <f>G250+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G250">
@@ -22513,7 +22541,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F251">
-        <f>G251+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G251">
@@ -22537,7 +22565,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F252">
-        <f>G252+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G252">
@@ -22561,7 +22589,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F253">
-        <f>G253+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G253">
@@ -22585,7 +22613,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F254">
-        <f>G254+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G254">
@@ -22609,7 +22637,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F255">
-        <f>G255+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0629070472856801</v>
       </c>
       <c r="G255">
@@ -22633,7 +22661,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F256">
-        <f>G256+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G256">
@@ -22657,7 +22685,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F257">
-        <f>G257+4.2/1000</f>
+        <f t="shared" si="3"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G257">
@@ -22681,7 +22709,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F258">
-        <f>G258+4.2/1000</f>
+        <f t="shared" ref="F258:F321" si="4">G258+4.2/1000</f>
         <v>1.1705930727165821</v>
       </c>
       <c r="G258">
@@ -22705,7 +22733,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F259">
-        <f>G259+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G259">
@@ -22729,7 +22757,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F260">
-        <f>G260+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G260">
@@ -22753,7 +22781,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F261">
-        <f>G261+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G261">
@@ -22777,7 +22805,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F262">
-        <f>G262+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G262">
@@ -22801,7 +22829,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F263">
-        <f>G263+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G263">
@@ -22825,7 +22853,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F264">
-        <f>G264+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G264">
@@ -22849,7 +22877,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F265">
-        <f>G265+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G265">
@@ -22873,7 +22901,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F266">
-        <f>G266+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G266">
@@ -22897,7 +22925,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F267">
-        <f>G267+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G267">
@@ -22921,7 +22949,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F268">
-        <f>G268+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G268">
@@ -22945,7 +22973,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F269">
-        <f>G269+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G269">
@@ -22969,7 +22997,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F270">
-        <f>G270+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G270">
@@ -22993,7 +23021,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F271">
-        <f>G271+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G271">
@@ -23017,7 +23045,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F272">
-        <f>G272+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G272">
@@ -23041,7 +23069,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F273">
-        <f>G273+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G273">
@@ -23065,7 +23093,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F274">
-        <f>G274+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G274">
@@ -23089,7 +23117,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F275">
-        <f>G275+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G275">
@@ -23113,7 +23141,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F276">
-        <f>G276+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G276">
@@ -23137,7 +23165,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F277">
-        <f>G277+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G277">
@@ -23161,7 +23189,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F278">
-        <f>G278+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G278">
@@ -23185,7 +23213,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F279">
-        <f>G279+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G279">
@@ -23209,7 +23237,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F280">
-        <f>G280+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G280">
@@ -23233,7 +23261,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F281">
-        <f>G281+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G281">
@@ -23257,7 +23285,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F282">
-        <f>G282+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G282">
@@ -23281,7 +23309,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F283">
-        <f>G283+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G283">
@@ -23305,7 +23333,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F284">
-        <f>G284+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G284">
@@ -23329,7 +23357,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F285">
-        <f>G285+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G285">
@@ -23353,7 +23381,7 @@
         <v>1.1790000559994951</v>
       </c>
       <c r="F286">
-        <f>G286+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G286">
@@ -23377,7 +23405,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F287">
-        <f>G287+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G287">
@@ -23401,7 +23429,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F288">
-        <f>G288+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G288">
@@ -23425,7 +23453,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F289">
-        <f>G289+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G289">
@@ -23449,7 +23477,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F290">
-        <f>G290+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G290">
@@ -23473,7 +23501,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F291">
-        <f>G291+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G291">
@@ -23497,7 +23525,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F292">
-        <f>G292+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G292">
@@ -23521,7 +23549,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F293">
-        <f>G293+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G293">
@@ -23545,7 +23573,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F294">
-        <f>G294+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G294">
@@ -23569,7 +23597,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F295">
-        <f>G295+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G295">
@@ -23593,7 +23621,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F296">
-        <f>G296+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G296">
@@ -23617,7 +23645,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F297">
-        <f>G297+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G297">
@@ -23641,7 +23669,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F298">
-        <f>G298+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G298">
@@ -23665,7 +23693,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F299">
-        <f>G299+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.0636163163812489</v>
       </c>
       <c r="G299">
@@ -23689,7 +23717,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F300">
-        <f>G300+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G300">
@@ -23713,7 +23741,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F301">
-        <f>G301+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G301">
@@ -23737,7 +23765,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F302">
-        <f>G302+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G302">
@@ -23761,7 +23789,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F303">
-        <f>G303+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G303">
@@ -23785,7 +23813,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F304">
-        <f>G304+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G304">
@@ -23809,7 +23837,7 @@
         <v>1.18500005628448</v>
       </c>
       <c r="F305">
-        <f>G305+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.128316606065531</v>
       </c>
       <c r="G305">
@@ -23833,7 +23861,7 @@
         <v>1.202000057091936</v>
       </c>
       <c r="F306">
-        <f>G306+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G306">
@@ -23857,7 +23885,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F307">
-        <f>G307+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G307">
@@ -23881,7 +23909,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F308">
-        <f>G308+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.159120841840577</v>
       </c>
       <c r="G308">
@@ -23905,7 +23933,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F309">
-        <f>G309+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G309">
@@ -23929,7 +23957,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F310">
-        <f>G310+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G310">
@@ -23953,7 +23981,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F311">
-        <f>G311+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G311">
@@ -23977,7 +24005,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F312">
-        <f>G312+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.244098642862401</v>
       </c>
       <c r="G312">
@@ -24001,7 +24029,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F313">
-        <f>G313+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1353010894629749</v>
       </c>
       <c r="G313">
@@ -24025,7 +24053,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F314">
-        <f>G314+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G314">
@@ -24049,7 +24077,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F315">
-        <f>G315+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G315">
@@ -24073,7 +24101,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F316">
-        <f>G316+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G316">
@@ -24097,7 +24125,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F317">
-        <f>G317+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G317">
@@ -24121,7 +24149,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F318">
-        <f>G318+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G318">
@@ -24145,7 +24173,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F319">
-        <f>G319+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G319">
@@ -24169,7 +24197,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F320">
-        <f>G320+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.096215018469624</v>
       </c>
       <c r="G320">
@@ -24193,7 +24221,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F321">
-        <f>G321+4.2/1000</f>
+        <f t="shared" si="4"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G321">
@@ -24217,7 +24245,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F322">
-        <f>G322+4.2/1000</f>
+        <f t="shared" ref="F322:F385" si="5">G322+4.2/1000</f>
         <v>1.1684395000181069</v>
       </c>
       <c r="G322">
@@ -24241,7 +24269,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F323">
-        <f>G323+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G323">
@@ -24265,7 +24293,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F324">
-        <f>G324+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.244098642862401</v>
       </c>
       <c r="G324">
@@ -24289,7 +24317,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F325">
-        <f>G325+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G325">
@@ -24313,7 +24341,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F326">
-        <f>G326+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G326">
@@ -24337,7 +24365,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F327">
-        <f>G327+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G327">
@@ -24361,7 +24389,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F328">
-        <f>G328+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G328">
@@ -24385,7 +24413,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F329">
-        <f>G329+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G329">
@@ -24409,7 +24437,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F330">
-        <f>G330+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G330">
@@ -24433,7 +24461,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F331">
-        <f>G331+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G331">
@@ -24457,7 +24485,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F332">
-        <f>G332+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G332">
@@ -24481,7 +24509,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F333">
-        <f>G333+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G333">
@@ -24505,7 +24533,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F334">
-        <f>G334+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.0629070472856801</v>
       </c>
       <c r="G334">
@@ -24529,7 +24557,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F335">
-        <f>G335+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G335">
@@ -24553,7 +24581,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F336">
-        <f>G336+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G336">
@@ -24577,7 +24605,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F337">
-        <f>G337+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G337">
@@ -24601,7 +24629,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F338">
-        <f>G338+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G338">
@@ -24625,7 +24653,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F339">
-        <f>G339+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.249972731356056</v>
       </c>
       <c r="G339">
@@ -24649,7 +24677,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F340">
-        <f>G340+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G340">
@@ -24673,7 +24701,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F341">
-        <f>G341+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G341">
@@ -24697,7 +24725,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F342">
-        <f>G342+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G342">
@@ -24721,7 +24749,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F343">
-        <f>G343+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G343">
@@ -24745,7 +24773,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F344">
-        <f>G344+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1369260876848111</v>
       </c>
       <c r="G344">
@@ -24769,7 +24797,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F345">
-        <f>G345+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G345">
@@ -24793,7 +24821,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F346">
-        <f>G346+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G346">
@@ -24817,7 +24845,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F347">
-        <f>G347+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G347">
@@ -24841,7 +24869,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F348">
-        <f>G348+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G348">
@@ -24865,7 +24893,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F349">
-        <f>G349+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G349">
@@ -24889,7 +24917,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F350">
-        <f>G350+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G350">
@@ -24913,7 +24941,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F351">
-        <f>G351+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G351">
@@ -24937,7 +24965,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F352">
-        <f>G352+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.249972731356056</v>
       </c>
       <c r="G352">
@@ -24961,7 +24989,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F353">
-        <f>G353+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G353">
@@ -24985,7 +25013,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F354">
-        <f>G354+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G354">
@@ -25009,7 +25037,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F355">
-        <f>G355+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G355">
@@ -25033,7 +25061,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F356">
-        <f>G356+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G356">
@@ -25057,7 +25085,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F357">
-        <f>G357+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G357">
@@ -25081,7 +25109,7 @@
         <v>1.1790000559994951</v>
       </c>
       <c r="F358">
-        <f>G358+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G358">
@@ -25105,7 +25133,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F359">
-        <f>G359+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G359">
@@ -25129,7 +25157,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F360">
-        <f>G360+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.0636163163812489</v>
       </c>
       <c r="G360">
@@ -25153,7 +25181,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F361">
-        <f>G361+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G361">
@@ -25177,7 +25205,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F362">
-        <f>G362+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.0961700179570919</v>
       </c>
       <c r="G362">
@@ -25201,7 +25229,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F363">
-        <f>G363+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G363">
@@ -25225,7 +25253,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F364">
-        <f>G364+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1959464837069349</v>
       </c>
       <c r="G364">
@@ -25249,7 +25277,7 @@
         <v>1.1990000569494439</v>
       </c>
       <c r="F365">
-        <f>G365+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.171421604847771</v>
       </c>
       <c r="G365">
@@ -25273,7 +25301,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F366">
-        <f>G366+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G366">
@@ -25297,7 +25325,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F367">
-        <f>G367+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G367">
@@ -25321,7 +25349,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F368">
-        <f>G368+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G368">
@@ -25345,7 +25373,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F369">
-        <f>G369+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G369">
@@ -25369,7 +25397,7 @@
         <v>1.1990000569494439</v>
       </c>
       <c r="F370">
-        <f>G370+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1688131458084821</v>
       </c>
       <c r="G370">
@@ -25393,7 +25421,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F371">
-        <f>G371+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G371">
@@ -25417,7 +25445,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F372">
-        <f>G372+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G372">
@@ -25441,7 +25469,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F373">
-        <f>G373+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.208578837895568</v>
       </c>
       <c r="G373">
@@ -25465,7 +25493,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F374">
-        <f>G374+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.244098642862401</v>
       </c>
       <c r="G374">
@@ -25489,7 +25517,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F375">
-        <f>G375+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G375">
@@ -25513,7 +25541,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F376">
-        <f>G376+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G376">
@@ -25537,7 +25565,7 @@
         <v>1.18100005609449</v>
       </c>
       <c r="F377">
-        <f>G377+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G377">
@@ -25561,7 +25589,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F378">
-        <f>G378+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G378">
@@ -25585,7 +25613,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F379">
-        <f>G379+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G379">
@@ -25609,7 +25637,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F380">
-        <f>G380+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G380">
@@ -25633,7 +25661,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F381">
-        <f>G381+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G381">
@@ -25657,7 +25685,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F382">
-        <f>G382+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1975060453060891</v>
       </c>
       <c r="G382">
@@ -25681,7 +25709,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F383">
-        <f>G383+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1959464837069349</v>
       </c>
       <c r="G383">
@@ -25705,7 +25733,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F384">
-        <f>G384+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G384">
@@ -25729,7 +25757,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F385">
-        <f>G385+4.2/1000</f>
+        <f t="shared" si="5"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G385">
@@ -25753,7 +25781,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F386">
-        <f>G386+4.2/1000</f>
+        <f t="shared" ref="F386:F449" si="6">G386+4.2/1000</f>
         <v>1.136429762223397</v>
       </c>
       <c r="G386">
@@ -25777,7 +25805,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F387">
-        <f>G387+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.0629070472856801</v>
       </c>
       <c r="G387">
@@ -25801,7 +25829,7 @@
         <v>1.1830000561894849</v>
       </c>
       <c r="F388">
-        <f>G388+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1305740696077691</v>
       </c>
       <c r="G388">
@@ -25825,7 +25853,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F389">
-        <f>G389+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.210620844503324</v>
       </c>
       <c r="G389">
@@ -25849,7 +25877,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F390">
-        <f>G390+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G390">
@@ -25873,7 +25901,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F391">
-        <f>G391+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G391">
@@ -25897,7 +25925,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F392">
-        <f>G392+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1278188275502641</v>
       </c>
       <c r="G392">
@@ -25921,7 +25949,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F393">
-        <f>G393+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G393">
@@ -25945,7 +25973,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F394">
-        <f>G394+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1241633487601599</v>
       </c>
       <c r="G394">
@@ -25969,7 +25997,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F395">
-        <f>G395+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G395">
@@ -25993,7 +26021,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F396">
-        <f>G396+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.132014600540413</v>
       </c>
       <c r="G396">
@@ -26017,7 +26045,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F397">
-        <f>G397+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.195638207133259</v>
       </c>
       <c r="G397">
@@ -26041,7 +26069,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F398">
-        <f>G398+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G398">
@@ -26065,7 +26093,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F399">
-        <f>G399+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G399">
@@ -26089,7 +26117,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F400">
-        <f>G400+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G400">
@@ -26113,7 +26141,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F401">
-        <f>G401+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1708299789233469</v>
       </c>
       <c r="G401">
@@ -26137,7 +26165,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F402">
-        <f>G402+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G402">
@@ -26161,7 +26189,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F403">
-        <f>G403+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.124201063831568</v>
       </c>
       <c r="G403">
@@ -26185,7 +26213,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F404">
-        <f>G404+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G404">
@@ -26209,7 +26237,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F405">
-        <f>G405+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1692031551116759</v>
       </c>
       <c r="G405">
@@ -26233,7 +26261,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F406">
-        <f>G406+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G406">
@@ -26257,7 +26285,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F407">
-        <f>G407+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G407">
@@ -26281,7 +26309,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F408">
-        <f>G408+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.16400855248352</v>
       </c>
       <c r="G408">
@@ -26305,7 +26333,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F409">
-        <f>G409+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1692031551116759</v>
       </c>
       <c r="G409">
@@ -26329,7 +26357,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F410">
-        <f>G410+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G410">
@@ -26353,7 +26381,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F411">
-        <f>G411+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1692031551116759</v>
       </c>
       <c r="G411">
@@ -26377,7 +26405,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F412">
-        <f>G412+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.156417670514255</v>
       </c>
       <c r="G412">
@@ -26401,7 +26429,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F413">
-        <f>G413+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G413">
@@ -26425,7 +26453,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F414">
-        <f>G414+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.0948814555867989</v>
       </c>
       <c r="G414">
@@ -26449,7 +26477,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F415">
-        <f>G415+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G415">
@@ -26473,7 +26501,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F416">
-        <f>G416+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G416">
@@ -26497,7 +26525,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F417">
-        <f>G417+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G417">
@@ -26521,7 +26549,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F418">
-        <f>G418+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.16400855248352</v>
       </c>
       <c r="G418">
@@ -26545,7 +26573,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F419">
-        <f>G419+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1692031551116759</v>
       </c>
       <c r="G419">
@@ -26569,7 +26597,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F420">
-        <f>G420+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1630654715468329</v>
       </c>
       <c r="G420">
@@ -26593,7 +26621,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F421">
-        <f>G421+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G421">
@@ -26617,7 +26645,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F422">
-        <f>G422+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.0948814555867989</v>
       </c>
       <c r="G422">
@@ -26641,7 +26669,7 @@
         <v>1.192000056616962</v>
       </c>
       <c r="F423">
-        <f>G423+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1692031551116759</v>
       </c>
       <c r="G423">
@@ -26665,7 +26693,7 @@
         <v>1.197000056854449</v>
       </c>
       <c r="F424">
-        <f>G424+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.2013130861340069</v>
       </c>
       <c r="G424">
@@ -26689,7 +26717,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F425">
-        <f>G425+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G425">
@@ -26713,7 +26741,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F426">
-        <f>G426+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.124201063831568</v>
       </c>
       <c r="G426">
@@ -26737,7 +26765,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F427">
-        <f>G427+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.128734912688417</v>
       </c>
       <c r="G427">
@@ -26761,7 +26789,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F428">
-        <f>G428+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1705930727165821</v>
       </c>
       <c r="G428">
@@ -26785,7 +26813,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F429">
-        <f>G429+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G429">
@@ -26809,7 +26837,7 @@
         <v>1.18500005628448</v>
       </c>
       <c r="F430">
-        <f>G430+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.124201063831568</v>
       </c>
       <c r="G430">
@@ -26833,7 +26861,7 @@
         <v>1.1880000564269719</v>
       </c>
       <c r="F431">
-        <f>G431+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.166190759002667</v>
       </c>
       <c r="G431">
@@ -26857,7 +26885,7 @@
         <v>1.1950000567594541</v>
       </c>
       <c r="F432">
-        <f>G432+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1692031551116759</v>
       </c>
       <c r="G432">
@@ -26881,7 +26909,7 @@
         <v>1.1990000569494439</v>
       </c>
       <c r="F433">
-        <f>G433+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.1708299789233469</v>
       </c>
       <c r="G433">
@@ -26905,7 +26933,7 @@
         <v>1.1900000565219671</v>
       </c>
       <c r="F434">
-        <f>G434+4.2/1000</f>
+        <f t="shared" si="6"/>
         <v>1.136429762223397</v>
       </c>
       <c r="G434">
